--- a/report/reliability/comb/Instituto de Computação - IC-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Computação - IC-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -4128,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7570958528886143</v>
+        <v>0.7380371742702243</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7767176976551261</v>
+        <v>0.7591804354561662</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9200614324164548</v>
+        <v>0.913093331699534</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2247378550237821</v>
+        <v>0.20805077309060482</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.478635294862894</v>
+        <v>3.1524865386009</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.047755102804211476</v>
+        <v>0.048309302736876794</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.9538690476190474</v>
+        <v>2.419642857142857</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.743136888510411</v>
+        <v>0.6779284186674437</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2203987932529392</v>
+        <v>0.17119576383447915</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7412487512487513</v>
+        <v>0.7295784162864389</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7561259422918095</v>
+        <v>0.7523678174306688</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9008346000741598</v>
+        <v>0.8965905351020845</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21988455521511116</v>
+        <v>0.21642639984306342</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1004771454475817</v>
+        <v>3.0382473296661416</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05100566834271734</v>
+        <v>0.04992589299047941</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07075367353759382</v>
+        <v>0.0970021451881529</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.22422739100760097</v>
+        <v>0.14580541579725403</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7457671945892755</v>
+        <v>0.7366126776731857</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7599451897780711</v>
+        <v>0.7611949660022592</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8971409399624322</v>
+        <v>0.9016954869398195</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22347726511561766</v>
+        <v>0.2246705006181623</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.1657153175789587</v>
+        <v>3.1875164156274045</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.04988820479596411</v>
+        <v>0.04844388300138895</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06946096261450321</v>
+        <v>0.09701418381343418</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.22961232861925562</v>
+        <v>0.2103904852658317</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4260,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7345086855068707</v>
+        <v>0.7159628884513314</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7490907465462101</v>
+        <v>0.7211174277861847</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9013532914110877</v>
+        <v>0.8934015031236918</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.21347135738751766</v>
+        <v>0.19032742086095092</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.9855046644749215</v>
+        <v>2.5857385854621064</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.051852398202410784</v>
+        <v>0.05352559829780997</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06882147822833562</v>
+        <v>0.07912215034162723</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2103904852658317</v>
+        <v>0.14580541579725403</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7328149345028566</v>
+        <v>0.6823459614010007</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7448318289268601</v>
+        <v>0.7214121939964753</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8922647765839863</v>
+        <v>0.8912068708465035</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.20971243754088442</v>
+        <v>0.19055346806118703</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.9189840793794213</v>
+        <v>2.589532558317889</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.05157648910313318</v>
+        <v>0.06128700765144393</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06545925651768152</v>
+        <v>0.07848952966375217</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2103904852658317</v>
+        <v>0.14580541579725403</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7302227440202131</v>
+        <v>0.6763834027903607</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7622238565950147</v>
+        <v>0.7183622800394703</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.888437061177393</v>
+        <v>0.8916242315099013</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22565947047394844</v>
+        <v>0.18823146729672469</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.205636384205201</v>
+        <v>2.5506607571604594</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05403434188234246</v>
+        <v>0.06269654471596947</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0644048577528131</v>
+        <v>0.07834156122918469</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22422739100760097</v>
+        <v>0.14580541579725403</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7229011760033538</v>
+        <v>0.7387529020895045</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7576912325731613</v>
+        <v>0.7637983296097407</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8866994641004469</v>
+        <v>0.9121349531675305</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22134730531992627</v>
+        <v>0.22718457309362317</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.126965815638239</v>
+        <v>3.2336703137948635</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05571686071615755</v>
+        <v>0.04891662693613034</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.06464220927048772</v>
+        <v>0.08477011254401415</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.22422739100760097</v>
+        <v>0.2103904852658317</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.764649540960452</v>
+        <v>0.7417679372258104</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.787726581615445</v>
+        <v>0.756641451580665</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8990438911168825</v>
+        <v>0.8957809323452947</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2522554067171301</v>
+        <v>0.22036482128197887</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7109054332389237</v>
+        <v>3.1091632346396287</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04522924738811776</v>
+        <v>0.044721730105287634</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06358187267458329</v>
+        <v>0.0847658757251639</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.26053403613305104</v>
+        <v>0.19524426264293354</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7890104413056701</v>
+        <v>0.767783079129188</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8022366015961225</v>
+        <v>0.7708777245743307</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9057231239318261</v>
+        <v>0.9051682488191464</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.26942082401544604</v>
+        <v>0.23422228822929653</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.056547410040831</v>
+        <v>3.364481795330348</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04094374636698276</v>
+        <v>0.04001527456214762</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05518747658815074</v>
+        <v>0.08010453003873703</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.26053403613305104</v>
+        <v>0.2103904852658317</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7244583643744394</v>
+        <v>0.7007104287456143</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.749390026776055</v>
+        <v>0.7300136428913951</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9145073481730409</v>
+        <v>0.9074637363700186</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.21373893614184142</v>
+        <v>0.1973082598494595</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.990264182768179</v>
+        <v>2.703890858447116</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05516609545785844</v>
+        <v>0.05581257591797673</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0690765218562327</v>
+        <v>0.09131811971590123</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.19524426264293354</v>
+        <v>0.14410438372203027</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7488349980410888</v>
+        <v>0.7302475016937671</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7708464335596305</v>
+        <v>0.7561219084549776</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9215742104588903</v>
+        <v>0.9154500354422608</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23419051535608357</v>
+        <v>0.21988080283270448</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.3638858235279545</v>
+        <v>3.100409321988605</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05028551708934462</v>
+        <v>0.05050679098201048</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0731112102527285</v>
+        <v>0.09710975901409558</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2103904852658317</v>
+        <v>0.17094169941979342</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7143132131173702</v>
+        <v>0.6948801605470136</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7342525331181041</v>
+        <v>0.7197252447535823</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8987227348906882</v>
+        <v>0.8901000342838747</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.20075396266659654</v>
+        <v>0.18926453434627832</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.762970957854593</v>
+        <v>2.567927475740008</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.056287421085454835</v>
+        <v>0.05587198881315451</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06835729441629146</v>
+        <v>0.09455225498431066</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19524426264293354</v>
+        <v>0.10776125671030376</v>
       </c>
     </row>
     <row r="22">
@@ -4521,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7247926384199536</v>
+        <v>0.7041643275441283</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7484974175867447</v>
+        <v>0.7310888047910229</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9055849823772762</v>
+        <v>0.8968422700918791</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.21294222433528223</v>
+        <v>0.19817474077382846</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.976102314356575</v>
+        <v>2.718699770840246</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05445630431608104</v>
+        <v>0.05445521362239077</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.07006008082749371</v>
+        <v>0.09527299722023205</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2103904852658317</v>
+        <v>0.17094169941979342</v>
       </c>
     </row>
     <row r="23">
@@ -4592,16 +4592,16 @@
         <v>56.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.503015153827476</v>
+        <v>0.40504325421045706</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.5792596356981589</v>
+        <v>0.45016371904146185</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5510230183348722</v>
+        <v>0.404532867736992</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.41132972381722877</v>
+        <v>0.29395510732696195</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.6964285714285716</v>
@@ -4618,16 +4618,16 @@
         <v>56.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.4529871103428155</v>
+        <v>0.3203159864730619</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5486472568868103</v>
+        <v>0.37798443462393416</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5282073668556084</v>
+        <v>0.3253163379754343</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3649687096517981</v>
+        <v>0.21333476912926577</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.357142857142857</v>
@@ -4644,22 +4644,22 @@
         <v>56.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5634715050515992</v>
+        <v>0.7462872010543103</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6339045268046556</v>
+        <v>0.6786671881701943</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6140752090955885</v>
+        <v>0.7026225874855128</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.46040527522259156</v>
+        <v>0.7188787412203225</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5714285714285716</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.2038897995043605</v>
+        <v>0.47125144252078643</v>
       </c>
     </row>
     <row r="30">
@@ -4670,22 +4670,22 @@
         <v>56.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5774301425437641</v>
+        <v>0.7508324118555497</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6659331295733932</v>
+        <v>0.6766880850996799</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6617524579823388</v>
+        <v>0.704192579445427</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.46353452287787855</v>
+        <v>0.6036368482482917</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.053571428571429</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3405513500339783</v>
+        <v>2.0398624858158847</v>
       </c>
     </row>
     <row r="31">
@@ -4696,22 +4696,22 @@
         <v>56.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6507512198865423</v>
+        <v>0.7700084351364214</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5300533545336147</v>
+        <v>0.6970178164030717</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5470950305803112</v>
+        <v>0.7238061203783321</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.48579975864716685</v>
+        <v>0.6313430423180483</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.3571428571428572</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.0398624858158847</v>
+        <v>2.0385091318214594</v>
       </c>
     </row>
     <row r="32">
@@ -4722,22 +4722,22 @@
         <v>56.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.682635079198773</v>
+        <v>0.27366086907672144</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5667959908298027</v>
+        <v>0.3559730646512775</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5854595423911625</v>
+        <v>0.3138164152758622</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5277550221852231</v>
+        <v>0.23762854024575206</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.3392857142857142</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.0385091318214594</v>
+        <v>0.31209389196617965</v>
       </c>
     </row>
     <row r="33">
@@ -4748,16 +4748,16 @@
         <v>56.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3195775209074891</v>
+        <v>0.3655406298960729</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.30343754149399965</v>
+        <v>0.41568179688274604</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.27603944214674586</v>
+        <v>0.40047742279918835</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.17119760028059205</v>
+        <v>0.20576375089708918</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>3.017857142857143</v>
@@ -4774,16 +4774,16 @@
         <v>56.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.1827907486506112</v>
+        <v>0.24834475022260777</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.15717628708076598</v>
+        <v>0.2943560058252086</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.12077769892808206</v>
+        <v>0.26535378112166985</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.0019283270546033282</v>
+        <v>0.05159981252344296</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.375</v>
@@ -4800,16 +4800,16 @@
         <v>56.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6403751872189887</v>
+        <v>0.6443894834524393</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6316245703327815</v>
+        <v>0.6175480950671045</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5811620906379887</v>
+        <v>0.564807456146658</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5174205547736783</v>
+        <v>0.5084231744883563</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.2857142857142856</v>
@@ -4826,16 +4826,16 @@
         <v>56.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.414081283789354</v>
+        <v>0.3896315510116775</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4573629384352481</v>
+        <v>0.41991950652101645</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.37613803475121554</v>
+        <v>0.33393186219610915</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.32658663002636773</v>
+        <v>0.2913480293522123</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>3.107142857142857</v>
@@ -4852,16 +4852,16 @@
         <v>56.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.727505008947309</v>
+        <v>0.6836304542232481</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7422655454984832</v>
+        <v>0.6879730409416493</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7324740945558877</v>
+        <v>0.6756600614678259</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6519346392777884</v>
+        <v>0.5896090401136522</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.8035714285714284</v>
@@ -4878,16 +4878,16 @@
         <v>56.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6407057151389677</v>
+        <v>0.6186178945096563</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.638413107203633</v>
+        <v>0.6099618252253655</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6173002510075811</v>
+        <v>0.5882427139793603</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5436137179323777</v>
+        <v>0.5063819288430409</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.482142857142857</v>
@@ -4992,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.03571428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05357142857142857</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4107142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.19642857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5018,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.03571428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.23214285714285715</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07142857142857142</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5892857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5050,16 +5050,16 @@
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="E47" t="n" s="112">
         <v>0.07142857142857142</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.10714285714285714</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.14285714285714285</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5070,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.6785714285714286</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.017857142857142856</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.16071428571428573</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5323,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8439141108107269</v>
+        <v>0.8727081908820584</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8483832439003042</v>
+        <v>0.9908365707706469</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8774691023177591</v>
+        <v>0.9874771470841323</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5831412774128135</v>
+        <v>0.9730044558289789</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.595577070270841</v>
+        <v>108.12945088250551</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03320409615455613</v>
+        <v>0.003427332417199353</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.919642857142857</v>
+        <v>1.005952380952381</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9331120254010512</v>
+        <v>1.5062041009274918</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5834296218887616</v>
+        <v>0.9754227682998494</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8330809059208906</v>
+        <v>0.9900841760797996</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8334378031559028</v>
+        <v>0.9900842861846684</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8236507512515597</v>
+        <v>0.9803632844212886</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6251763204558362</v>
+        <v>0.9803632844212884</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.003763272502966</v>
+        <v>99.8500263948531</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.035134830387889206</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.03081374552396487</v>
-      </c>
+        <v>0.0026501004073622597</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6601914701258713</v>
+        <v>0.9803632844212885</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8108987820243594</v>
+        <v>0.5942761820361777</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8092538715393962</v>
+        <v>0.9812692677217623</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.774853658029076</v>
+        <v>0.9632273147657985</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5857824157066928</v>
+        <v>0.9632273147657984</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.242570363395538</v>
+        <v>52.38819567464807</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04211086828686055</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.029475639270356558</v>
-      </c>
+        <v>0.014110056063049922</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5203196494728325</v>
+        <v>0.9632273147657984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.789294710327456</v>
+        <v>0.5992944594314173</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8104907655205549</v>
+        <v>0.9875584952777965</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7614754410670956</v>
+        <v>0.9754227682998494</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5877301745874707</v>
+        <v>0.9754227682998493</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.276787712993818</v>
+        <v>79.37612992384888</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04824646609515619</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01297059394115089</v>
-      </c>
+        <v>0.011451504381188788</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6465395943046905</v>
+        <v>0.9754227682998494</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7627387768849541</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7745746533317454</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.710993381843365</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5338761989012547</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.4360583881973223</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.05526428379502777</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011349493807675613</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5203196494728325</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>56.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.979178370720527</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9884853119923134</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9787205578765342</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9741209948398921</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.47125144252078643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>56.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7616123483643743</v>
+        <v>0.995440874064432</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7910432216991856</v>
+        <v>0.9942494056517828</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6962501963265919</v>
+        <v>0.9919083822472908</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6044208578880492</v>
+        <v>0.9849751644954599</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6964285714285716</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0076009826611625</v>
+        <v>2.0398624858158847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>56.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.799180357138636</v>
+        <v>0.9941631144093213</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8266800827002571</v>
+        <v>0.9901471728745758</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7702318039600127</v>
+        <v>0.9835798246904167</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6763147075701103</v>
+        <v>0.9808292644730943</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.357142857142857</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9230103206075498</v>
+        <v>2.0385091318214594</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>56.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8508765760716452</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8249180839103454</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7837969849064494</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.709093021299729</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.2038897995043605</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>56.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8974168745712384</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8736359416120876</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8561881155278391</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7733987377755555</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.053571428571429</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3405513500339783</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
+      <c r="D27" t="n" s="226">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.07142857142857142</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.26785714285714285</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.48214285714285715</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.17857142857142858</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.625</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4107142857142857</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.23214285714285715</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5870,31 +5783,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8705901479434239</v>
+        <v>0.7708561643835616</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8764740807470008</v>
+        <v>0.9039652876434908</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7801102455471112</v>
+        <v>0.863757076422226</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7801102455471112</v>
+        <v>0.7583159746430987</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>7.095466976059123</v>
+        <v>9.412901496364189</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03356397356184378</v>
+        <v>0.024092237118413726</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.1964285714285716</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4131800741865568</v>
+        <v>1.0263484074090305</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7801102455471113</v>
+        <v>0.7635291066600729</v>
       </c>
     </row>
     <row r="7">
@@ -5941,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8705901479434239</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8764740807470008</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7801102455471112</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7801102455471112</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.6085719952075742</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7801102455471112</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7801102455471112</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>7.095466976059123</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03356397356184378</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7801102455471112</v>
+        <v>0.7801102455471113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.4286119247850326</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.84480442558508</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.7313085717221122</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7313085717221122</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>5.443482707351373</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.040378418431773054</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.7313085717221122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.6085719952075742</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7801102455471112</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6085719952075742</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7801102455471112</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.4942122578286827</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8659104108648501</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7635291066600731</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7635291066600729</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>6.457700530293166</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03972447935312813</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7635291066600729</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>56.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.93407087412362</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9434273277648658</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8332713365869144</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7801102455471112</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.017857142857143</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3815810630456085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9520873277290425</v>
+        <v>0.8271025511609708</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9434273277648658</v>
+        <v>0.9079706581028628</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8332713365869143</v>
+        <v>0.8320698147094836</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7801102455471113</v>
+        <v>0.7906254508166993</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.31209389196617965</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>56.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9348071422036924</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.92573152819207</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8741535395547055</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8074490366565562</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.017857142857143</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3815810630456085</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>56.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9480791636863133</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9140051940239019</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8474555536720928</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8000806997489639</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.375</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6131561385286692</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.10714285714285714</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.05357142857142857</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.05357142857142857</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.35714285714285715</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.35714285714285715</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.07142857142857142</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.10714285714285714</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.05357142857142857</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.08928571428571429</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.125</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.35714285714285715</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.26785714285714285</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6243,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8972196900638103</v>
+        <v>0.7835007932310947</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.897642618426993</v>
+        <v>0.7853313659034293</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8142936523417689</v>
+        <v>0.6465395943046903</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046905</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.769691102216637</v>
+        <v>3.6583423992446935</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.02739970325983691</v>
+        <v>0.057482405031267655</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.642857142857143</v>
+        <v>4.026785714285714</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1935976393556267</v>
+        <v>0.8760429776565181</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046905</v>
       </c>
     </row>
     <row r="7">
@@ -6314,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6630741522440975</v>
+        <v>0.4180134470036735</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6630741522440975</v>
+        <v>0.4180134470036735</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.6630741522440975</v>
+        <v>0.4180134470036735</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.814293652341769</v>
+        <v>0.6465395943046904</v>
       </c>
     </row>
     <row r="13">
@@ -6399,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>56.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9504062441969469</v>
+        <v>0.9156877811963093</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9524425579376871</v>
+        <v>0.9073421610133331</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8594672200223422</v>
+        <v>0.7295728343724031</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.8142936523417689</v>
+        <v>0.6465395943046907</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>2.8035714285714284</v>
+        <v>3.6964285714285716</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.2272607022017903</v>
+        <v>1.0076009826611625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9544372035836458</v>
+        <v>0.8986227224662638</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9524425579376871</v>
+        <v>0.9073421610133331</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8594672200223422</v>
+        <v>0.7295728343724033</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8142936523417689</v>
+        <v>0.6465395943046905</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.482142857142857</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2790773866498308</v>
+        <v>0.9230103206075498</v>
       </c>
     </row>
     <row r="19">
@@ -6467,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.08928571428571429</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
         <v>0.26785714285714285</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.25</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="F23" t="n" s="458">
-        <v>0.375</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="G23" t="n" s="459">
         <v>0.0</v>
@@ -6510,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="455">
         <v>0.03571428571428571</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.3392857142857143</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.23214285714285715</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.26785714285714285</v>
+        <v>0.625</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6607,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9900841760797996</v>
+        <v>0.5544325729136588</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9900842861846684</v>
+        <v>0.6182431877871688</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9803632844212886</v>
+        <v>0.4474327047442421</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9803632844212884</v>
+        <v>0.4474327047442421</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>99.8500263948531</v>
+        <v>1.619468646030331</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.0026501004073622597</v>
+        <v>0.09884973163908385</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.3482142857142858</v>
+        <v>2.6964285714285716</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>2.02915038838951</v>
+        <v>1.0603540207641264</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9611121694412964</v>
+        <v>0.2001960252747481</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9611121694412964</v>
+        <v>0.2001960252747481</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9611121694412964</v>
+        <v>0.2001960252747481</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9803632844212885</v>
+        <v>0.44743270474424224</v>
       </c>
     </row>
     <row r="13">
@@ -6763,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>56.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9950819852283841</v>
+        <v>0.9272589289841419</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9950787115653937</v>
+        <v>0.8507152005060925</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9852602331015358</v>
+        <v>0.5690468917492609</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9803632844212886</v>
+        <v>0.447432704744242</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.3571428571428572</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>2.0398624858158847</v>
+        <v>1.5691837567148286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9950754368159013</v>
+        <v>0.7497370149997107</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9950787115653937</v>
+        <v>0.8507152005060925</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9852602331015358</v>
+        <v>0.5690468917492609</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9803632844212887</v>
+        <v>0.4474327047442422</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.3392857142857142</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.0385091318214594</v>
+        <v>0.8878691842336282</v>
       </c>
     </row>
     <row r="19">
@@ -6834,16 +6834,16 @@
         <v>37</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>41</v>
-      </c>
-      <c r="F22" t="s" s="567">
-        <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
         <v>43</v>
@@ -6851,22 +6851,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.6785714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.07142857142857142</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.10714285714285714</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.14285714285714285</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +6874,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.6785714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.017857142857142856</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="D24" t="n" s="570">
         <v>0.07142857142857142</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.07142857142857142</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.16071428571428573</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6971,31 +6971,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.5544325729136588</v>
+        <v>0.8972196900638103</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.6182431877871688</v>
+        <v>0.897642618426993</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.4474327047442421</v>
+        <v>0.8142936523417689</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.4474327047442421</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>1.619468646030331</v>
+        <v>8.769691102216637</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.09884973163908385</v>
+        <v>0.02739970325983691</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.6964285714285716</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.0603540207641264</v>
+        <v>1.1935976393556267</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7042,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.2001960252747481</v>
+        <v>0.6630741522440975</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.2001960252747481</v>
+        <v>0.6630741522440975</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.2001960252747481</v>
+        <v>0.6630741522440975</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.44743270474424224</v>
+        <v>0.814293652341769</v>
       </c>
     </row>
     <row r="13">
@@ -7127,54 +7127,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>56.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.9272589289841419</v>
+        <v>0.9504062441969469</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8507152005060925</v>
+        <v>0.9524425579376871</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.5690468917492609</v>
+        <v>0.8594672200223422</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.447432704744242</v>
+        <v>0.8142936523417689</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>2.2857142857142856</v>
+        <v>2.8035714285714284</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.5691837567148286</v>
+        <v>1.2272607022017903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.7497370149997107</v>
+        <v>0.9544372035836458</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8507152005060925</v>
+        <v>0.9524425579376871</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.5690468917492609</v>
+        <v>0.8594672200223422</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.4474327047442422</v>
+        <v>0.8142936523417689</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>3.107142857142857</v>
+        <v>2.482142857142857</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>0.8878691842336282</v>
+        <v>1.2790773866498308</v>
       </c>
     </row>
     <row r="19">
@@ -7215,22 +7215,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="682">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="E23" t="n" s="685">
         <v>0.25</v>
       </c>
-      <c r="C23" t="n" s="683">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="D23" t="n" s="684">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.3392857142857143</v>
-      </c>
       <c r="F23" t="n" s="686">
-        <v>0.26785714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7238,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.08928571428571429</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.07142857142857142</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.48214285714285715</v>
+        <v>0.23214285714285715</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.35714285714285715</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7335,31 +7335,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8149839241084051</v>
+        <v>0.807571494012172</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8282359873097174</v>
+        <v>0.8238343939673558</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9218643962487927</v>
+        <v>0.9138902032694481</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.32532454453931503</v>
+        <v>0.3419357894233024</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>4.821941303869954</v>
+        <v>4.676476938493294</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.03688886596936029</v>
+        <v>0.03405522302712839</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.905357142857143</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.8624320037191112</v>
+        <v>0.857331228299095</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.2742604357141542</v>
+        <v>0.2777156361122748</v>
       </c>
     </row>
     <row r="7">
@@ -7406,28 +7406,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.8041348274775484</v>
+        <v>0.7915221579961464</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.8138944073987818</v>
+        <v>0.7900896569448325</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.9079345684654837</v>
+        <v>0.8892990616934394</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.3270169464785422</v>
+        <v>0.3199556520925393</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>4.373293655622546</v>
+        <v>3.7639386675538202</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.03905143935042469</v>
+        <v>0.03869412701077589</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.05072321058164115</v>
+        <v>0.050880243203786445</v>
       </c>
       <c r="I11" t="n" s="752">
         <v>0.27298791226535246</v>
@@ -7435,57 +7435,57 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.8107902699240466</v>
+        <v>0.7641103234877711</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8209470458086694</v>
+        <v>0.7894490714629672</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.9048018088297092</v>
+        <v>0.8861152375142818</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3375016730194613</v>
+        <v>0.31911676022429</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.584939966594634</v>
+        <v>3.749444739798974</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.037687462603054375</v>
+        <v>0.04320116541253088</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.04371410340242082</v>
+        <v>0.050437302510552694</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2879161438618548</v>
+        <v>0.27644311266347305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.799060037782795</v>
+        <v>0.7562390090558555</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8079959152635523</v>
+        <v>0.7852550210432596</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.901622992186683</v>
+        <v>0.8866369417784309</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.3186062712469887</v>
+        <v>0.3136986104876925</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.208222530122936</v>
+        <v>3.6566862930073305</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.03923448083435173</v>
+        <v>0.045264190832534884</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.04881151878398817</v>
+        <v>0.05200255006608677</v>
       </c>
       <c r="I13" t="n" s="752">
         <v>0.27298791226535246</v>
@@ -7493,205 +7493,181 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.7998229904206581</v>
+        <v>0.8052741910982835</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8055584333972022</v>
+        <v>0.8220220726404107</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.8931598136565266</v>
+        <v>0.9000596088240475</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.3152213572125913</v>
+        <v>0.36601897848507564</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>4.142933259958683</v>
+        <v>4.618674263913552</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.03818477977456124</v>
+        <v>0.03388951804294564</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.04324688868196895</v>
+        <v>0.07631533424158432</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.27298791226535246</v>
+        <v>0.28558053230828484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.785315557363362</v>
+        <v>0.8156451005799293</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.7995818717236033</v>
+        <v>0.8367282568170408</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.898937346845178</v>
+        <v>0.9065056255735974</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.30713634330954936</v>
+        <v>0.3904649759221403</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>3.9895686014036564</v>
+        <v>5.124758519172658</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.042690895384313976</v>
+        <v>0.03229816933806791</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.04828408569782368</v>
+        <v>0.06381123433205423</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.2628475200544004</v>
+        <v>0.2948845496362703</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.7955457967377666</v>
+        <v>0.7707805804953886</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8129406004286805</v>
+        <v>0.7918713529376787</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.9060525386652934</v>
+        <v>0.9049426969025601</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.32563536042554275</v>
+        <v>0.32230501131414496</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.345895487164406</v>
+        <v>3.8047206096552584</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.041089872092994674</v>
+        <v>0.0400345969932236</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.04700800808146498</v>
+        <v>0.08162712166578616</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.2708352859390158</v>
+        <v>0.26689330458033844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8002214309225291</v>
+        <v>0.8022764317484874</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8203814905717418</v>
+        <v>0.8216708402553532</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8868116890710707</v>
+        <v>0.9193779931269898</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.3366429916354741</v>
+        <v>0.3654624984224144</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.567354963489506</v>
+        <v>4.607607872049201</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.040032141170952225</v>
+        <v>0.03547809419752709</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.03813847940243693</v>
+        <v>0.0816731181833803</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.2879831985603708</v>
+        <v>0.2879161438618548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.7922550750220653</v>
+        <v>0.7799642700643813</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8155762583401074</v>
+        <v>0.798697792349912</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8849209168021013</v>
+        <v>0.8850194481483513</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3294738527354826</v>
+        <v>0.33153155494178216</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.422295367177633</v>
+        <v>3.9676554056388835</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.041961198484333086</v>
+        <v>0.03738125606355829</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.04045794754768059</v>
+        <v>0.07499591362536871</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.28005124766584477</v>
+        <v>0.26904593090667517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.785492964900696</v>
+        <v>0.7897308225606592</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8041577375665494</v>
+        <v>0.8108316452735147</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9152732932438168</v>
+        <v>0.8933013116929814</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.31329949001549806</v>
+        <v>0.3488680629196423</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>4.106150161739533</v>
+        <v>4.286296439200312</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.04362799790193442</v>
+        <v>0.036263111083039826</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.05409966527283706</v>
+        <v>0.07151192361861126</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.2708352859390158</v>
+        <v>0.278778724217043</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.8086354021268328</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.8243336652342204</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.9263534976181285</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.3427111593140198</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>4.692610375991078</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.03911009853405399</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.05512070790890037</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.29005728280469034</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7700,359 +7676,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="756">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="770">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="770">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="770">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="770">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="770">
-        <v>10</v>
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>56.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.8025433528431303</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.750390422992867</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.7765876041957428</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.7791133061754555</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.47125144252078643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.5438110733537733</v>
+        <v>0.8120833227954082</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.6170099674465006</v>
+        <v>0.7544414877577127</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.5774560624511323</v>
+        <v>0.7848445927329081</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.4534684252527406</v>
+        <v>0.6843697135592876</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.6964285714285716</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.0076009826611625</v>
+        <v>2.0398624858158847</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.4589312019623356</v>
+        <v>0.8366081158724311</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.5567847687051639</v>
+        <v>0.7806060940905813</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.5257144383505339</v>
+        <v>0.8103479178372955</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.36824776119718877</v>
+        <v>0.722468802001542</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>4.357142857142857</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>0.9230103206075498</v>
+        <v>2.0385091318214594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.5976457304678529</v>
+        <v>0.45778266831499226</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.6653216315983769</v>
+        <v>0.5279475485735238</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.643891648607366</v>
+        <v>0.4665110813289615</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.49606101596984514</v>
+        <v>0.34537677372335923</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.5714285714285716</v>
+        <v>3.6964285714285716</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>1.2038897995043605</v>
+        <v>1.0076009826611625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.5973500061439787</v>
+        <v>0.3293284962099681</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.6847648778908123</v>
+        <v>0.4098961970143873</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6785362961461942</v>
+        <v>0.33971315715249767</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.48260793779342565</v>
+        <v>0.2168118857260389</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>4.053571428571429</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.3405513500339783</v>
+        <v>0.9230103206075498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.719057674925447</v>
+        <v>0.7418213064233052</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.7312059145012422</v>
+        <v>0.7390452106683345</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.7174361824691994</v>
+        <v>0.6800036372009589</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.6386343645810838</v>
+        <v>0.626094469460964</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.8035714285714284</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.2272607022017903</v>
+        <v>1.5691837567148286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.6305330945073097</v>
+        <v>0.4816968477653664</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.6249459202150749</v>
+        <v>0.530634827899393</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.5992441227451039</v>
+        <v>0.42615898675932845</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.5277314523867538</v>
+        <v>0.38594894829993137</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.482142857142857</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.2790773866498308</v>
+        <v>0.8878691842336282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.6903058859703323</v>
+        <v>0.6801726875543757</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.5617171106984707</v>
+        <v>0.6944896163111796</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.5793253655383399</v>
+        <v>0.6766386073239334</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.5313310888299416</v>
+        <v>0.5794033618515824</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>1.3571428571428572</v>
+        <v>2.8035714285714284</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>2.0398624858158847</v>
+        <v>1.2272607022017903</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>56.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.7270161831106453</v>
+        <v>0.6130097768268378</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.6028972800973752</v>
+        <v>0.6107704633753654</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6222605242361468</v>
+        <v>0.5821556396434645</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.5813994841147325</v>
+        <v>0.49262110454929137</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.3392857142857142</v>
+        <v>2.482142857142857</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>2.0385091318214594</v>
+        <v>1.2790773866498308</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>56.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.7135920249825083</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.6958042534479787</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.6406735902236018</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.6045184616774076</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.5691837567148286</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>56.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.48837397248842185</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.5268610175986752</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.4329449888007049</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.4040251353351717</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>3.107142857142857</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>0.8878691842336282</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="781">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="795">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="795">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="795">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="795">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="795">
-        <v>43</v>
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="796">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C39" t="n" s="797">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="797">
+      <c r="D39" t="n" s="798">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="E39" t="n" s="799">
         <v>0.07142857142857142</v>
       </c>
-      <c r="D39" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="799">
-        <v>0.26785714285714285</v>
-      </c>
       <c r="F39" t="n" s="800">
-        <v>0.48214285714285715</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.17857142857142858</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8057,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="796">
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="797">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D40" t="n" s="798">
         <v>0.0</v>
       </c>
-      <c r="D40" t="n" s="798">
-        <v>0.03571428571428571</v>
-      </c>
       <c r="E40" t="n" s="799">
-        <v>0.19642857142857142</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="F40" t="n" s="800">
-        <v>0.14285714285714285</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.625</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8083,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
         <v>0.03571428571428571</v>
       </c>
-      <c r="C41" t="n" s="797">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="D41" t="n" s="798">
-        <v>0.017857142857142856</v>
-      </c>
       <c r="E41" t="n" s="799">
-        <v>0.2857142857142857</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.4107142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.19642857142857142</v>
+        <v>0.625</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8109,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.017857142857142856</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="D42" t="n" s="798">
         <v>0.05357142857142857</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.23214285714285715</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.07142857142857142</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.5892857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,22 +8135,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n" s="797">
         <v>0.08928571428571429</v>
       </c>
-      <c r="C43" t="n" s="797">
-        <v>0.017857142857142856</v>
-      </c>
       <c r="D43" t="n" s="798">
-        <v>0.26785714285714285</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E43" t="n" s="799">
-        <v>0.25</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.375</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="G43" t="n" s="801">
         <v>0.0</v>
@@ -8164,22 +8161,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.125</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.03571428571428571</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.3392857142857143</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.23214285714285715</v>
+        <v>0.25</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.26785714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G44" t="n" s="801">
         <v>0.0</v>
@@ -8190,105 +8187,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.6785714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="C45" t="n" s="797">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.23214285714285715</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.14285714285714285</v>
-      </c>
       <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.16071428571428573</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.25</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.48214285714285715</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
